--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/Năm 2025/Tháng 10/03. Xác nhận bảo hành/XNBH_Victory_041025.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/Năm 2025/Tháng 10/03. Xác nhận bảo hành/XNBH_Victory_041025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\4.Workspace\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\Năm 2025\Tháng 10\03. Xác nhận bảo hành\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0E8B1E-D004-47FA-903E-480113E3B14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8683169-37F8-4FDF-9557-B3B6A728E361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -57,18 +57,12 @@
     <t>Trần Thị Thu Hà</t>
   </si>
   <si>
-    <t>TP.KTTH</t>
-  </si>
-  <si>
     <t>Địa chỉ:</t>
   </si>
   <si>
     <t xml:space="preserve">                                        </t>
   </si>
   <si>
-    <t>Kế Toán Kho</t>
-  </si>
-  <si>
     <t>Công Ty CP Công Nghệ Điện Tử &amp; Viễn Thông Việt Nam</t>
   </si>
   <si>
@@ -78,9 +72,6 @@
     <t>Số điện thoại:</t>
   </si>
   <si>
-    <t>Người Lập</t>
-  </si>
-  <si>
     <t>Đặng Ngọc Mai</t>
   </si>
   <si>
@@ -123,19 +114,25 @@
     <t>00320023DB</t>
   </si>
   <si>
-    <t>Đào Văn Thông</t>
-  </si>
-  <si>
     <t>Nguyễn Minh Tùng</t>
   </si>
   <si>
     <t>Điện thoại: 0243 6400 767</t>
   </si>
   <si>
-    <t>Trưởng phòng kỹ thuật</t>
-  </si>
-  <si>
     <t>Đổi thiết bị khác thu phí</t>
+  </si>
+  <si>
+    <t>Kế toán kho</t>
+  </si>
+  <si>
+    <t>Người lập</t>
+  </si>
+  <si>
+    <t>Tp. Kế toán tổng hợp</t>
+  </si>
+  <si>
+    <t>T. Bộ phận bảo hành</t>
   </si>
 </sst>
 </file>
@@ -549,89 +546,89 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -999,7 +996,7 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1019,104 +1016,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52"/>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="A1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45"/>
     </row>
     <row r="4" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="47"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="48"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="51"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
     </row>
     <row r="6" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="A6" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
+      <c r="A7" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="A8" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
@@ -1126,13 +1123,13 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
@@ -1149,16 +1146,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>3</v>
@@ -1167,7 +1164,7 @@
         <v>8</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1175,24 +1172,24 @@
         <v>1</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1207,53 +1204,53 @@
     </row>
     <row r="13" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
+      <c r="G13" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
     </row>
     <row r="14" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63" t="s">
+      <c r="A14" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
       <c r="G14" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="38"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="62"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
       <c r="G15" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="64"/>
+        <v>13</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="40"/>
     </row>
     <row r="16" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="35"/>
@@ -1311,23 +1308,23 @@
       <c r="I20" s="30"/>
     </row>
     <row r="21" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
       <c r="G21" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="63"/>
+        <v>15</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="39"/>
       <c r="J21" s="10"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -1344,12 +1341,23 @@
       <c r="I22" s="30"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
     </row>
     <row r="63" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A1:C4"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H21:I21"/>
@@ -1360,17 +1368,6 @@
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <pageMargins left="1" right="1.5" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
